--- a/src/test/resources/PurchaseTestData.xlsx
+++ b/src/test/resources/PurchaseTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SankaraNarayanan\IdeaProjects\StoryboardsSystems\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09978491-0ED8-480C-94E4-533E815245BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A32DF54-7691-4BC6-8A04-2A3F2E953E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10A406CA-8F78-42FA-A36E-2226F1DC392F}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +610,9 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -902,20 +905,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,14 +941,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25075904-33CD-4399-AFAA-91BEF0154554}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -960,4 +955,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/PurchaseTestData.xlsx
+++ b/src/test/resources/PurchaseTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SankaraNarayanan\IdeaProjects\StoryboardsSystems\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A32DF54-7691-4BC6-8A04-2A3F2E953E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EF150-7FAE-4410-946C-063C46FFA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10A406CA-8F78-42FA-A36E-2226F1DC392F}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
-  <si>
-    <t>Branch Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Vendor Name</t>
   </si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,49 +500,49 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -553,7 +556,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -567,21 +570,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -609,7 +612,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -617,32 +620,32 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -905,20 +908,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,6 +944,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25075904-33CD-4399-AFAA-91BEF0154554}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -955,12 +966,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/PurchaseTestData.xlsx
+++ b/src/test/resources/PurchaseTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SankaraNarayanan\IdeaProjects\StoryboardsSystems\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EF150-7FAE-4410-946C-063C46FFA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034BDF19-C0F0-42C5-9A2D-72613010D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10A406CA-8F78-42FA-A36E-2226F1DC392F}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
-  <si>
-    <t>Vendor Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Delivery Terms</t>
   </si>
@@ -95,19 +92,19 @@
     <t>Linus</t>
   </si>
   <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>SC001</t>
+  </si>
+  <si>
+    <t>SC002</t>
+  </si>
+  <si>
+    <t>SC003</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,49 +497,49 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -556,7 +553,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -570,21 +567,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -598,7 +595,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -612,7 +609,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -620,32 +617,32 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -908,20 +905,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,14 +941,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25075904-33CD-4399-AFAA-91BEF0154554}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -966,4 +955,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/PurchaseTestData.xlsx
+++ b/src/test/resources/PurchaseTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SankaraNarayanan\IdeaProjects\StoryboardsSystems\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034BDF19-C0F0-42C5-9A2D-72613010D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9177DC09-E6A3-4D6B-99C3-E52F5FCC909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10A406CA-8F78-42FA-A36E-2226F1DC392F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Delivery Terms</t>
   </si>
@@ -98,13 +98,19 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>SC001</t>
-  </si>
-  <si>
-    <t>SC002</t>
-  </si>
-  <si>
-    <t>SC003</t>
+    <t>Scenario1</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
+  </si>
+  <si>
+    <t>Scenario3</t>
+  </si>
+  <si>
+    <t>TechOne Services Limited</t>
+  </si>
+  <si>
+    <t>GBP</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -570,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>

--- a/src/test/resources/PurchaseTestData.xlsx
+++ b/src/test/resources/PurchaseTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SankaraNarayanan\IdeaProjects\StoryboardsSystems\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9177DC09-E6A3-4D6B-99C3-E52F5FCC909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61892D17-11E9-4CA7-A2B5-C2F0CCC20637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10A406CA-8F78-42FA-A36E-2226F1DC392F}"/>
   </bookViews>
@@ -92,12 +92,6 @@
     <t>Linus</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
     <t>Scenario1</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>GBP</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,21 +506,21 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>

--- a/src/test/resources/PurchaseTestData.xlsx
+++ b/src/test/resources/PurchaseTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SankaraNarayanan\IdeaProjects\StoryboardsSystems\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61892D17-11E9-4CA7-A2B5-C2F0CCC20637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABB96D9-09A9-4DFC-8FED-1B4F9C4A1B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10A406CA-8F78-42FA-A36E-2226F1DC392F}"/>
   </bookViews>
@@ -71,15 +71,9 @@
     <t>Round Off</t>
   </si>
   <si>
-    <t>Vendor Details</t>
-  </si>
-  <si>
     <t>Vcidex</t>
   </si>
   <si>
-    <t>San's</t>
-  </si>
-  <si>
     <t>INR</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>TechSupply Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Expected Date Day</t>
   </si>
 </sst>
 </file>
@@ -152,8 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +495,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,63 +507,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45757</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -573,82 +572,94 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1850</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>1750</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>1850</v>
+      </c>
+      <c r="D9">
+        <v>1750</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -911,20 +922,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,6 +958,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25075904-33CD-4399-AFAA-91BEF0154554}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -961,12 +980,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/PurchaseTestData.xlsx
+++ b/src/test/resources/PurchaseTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SankaraNarayanan\IdeaProjects\StoryboardsSystems\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABB96D9-09A9-4DFC-8FED-1B4F9C4A1B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE68714-069D-4E0F-8415-5B6F5F901917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10A406CA-8F78-42FA-A36E-2226F1DC392F}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Linus</t>
   </si>
   <si>
-    <t>Scenario1</t>
-  </si>
-  <si>
     <t>Scenario2</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Expected Date Day</t>
+  </si>
+  <si>
+    <t>DirectPO1</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,21 +510,21 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>45757</v>
@@ -589,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -922,20 +922,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6933a2c5-24dd-4bec-860e-e73486701e1e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,14 +958,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25075904-33CD-4399-AFAA-91BEF0154554}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -980,4 +972,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0834E64B-E20B-45CB-992C-FE1F44BB7B59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>